--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A956F68-509E-43CC-A8DC-F3CB329A8721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CA8B4-E50C-40EB-98DB-64A4ED1EFD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -95,6 +96,12 @@
   </si>
   <si>
     <t>NGC-3477/T1859</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2653</t>
   </si>
 </sst>
 </file>
@@ -518,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70823DFC-9F4D-48CC-8A3A-BA1CDFF79EA6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,4 +845,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F684A2-8ABC-41C9-82F1-6C1DAD8975F7}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802CA8B4-E50C-40EB-98DB-64A4ED1EFD01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD8469-890E-49BC-A61E-63B0280C2DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
     <sheet name="Belgium" sheetId="12" r:id="rId2"/>
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>NGC-3476/T2653</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2459</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
   </si>
 </sst>
 </file>
@@ -638,7 +645,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -851,7 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F684A2-8ABC-41C9-82F1-6C1DAD8975F7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -952,4 +959,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1F334-F85E-4F6E-A70A-71D9A08070ED}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD8469-890E-49BC-A61E-63B0280C2DC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C094E-25D7-4F97-959E-07CBF03F576F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="13" r:id="rId3"/>
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -109,6 +110,12 @@
   </si>
   <si>
     <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3236/T3235</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -965,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1F334-F85E-4F6E-A70A-71D9A08070ED}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,4 +1073,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6110FB2-0B0D-41AE-8F58-FA9C50D20DE1}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88C094E-25D7-4F97-959E-07CBF03F576F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE8A39-B4B8-4F10-A353-E6BFB4150B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="14" r:id="rId4"/>
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
+    <sheet name="Italy" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -116,6 +117,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6110FB2-0B0D-41AE-8F58-FA9C50D20DE1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,4 +1187,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121CFDAF-8925-4CF3-AC44-66CE155AB3DF}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFE8A39-B4B8-4F10-A353-E6BFB4150B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E0EEF-53A2-431E-A31E-DAE3417A108A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="15" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
+    <sheet name="Spain" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -123,6 +124,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2063</t>
   </si>
 </sst>
 </file>
@@ -1193,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121CFDAF-8925-4CF3-AC44-66CE155AB3DF}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,4 +1301,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363DCA35-F5D2-4909-9DFF-F50594A0A84C}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E0EEF-53A2-431E-A31E-DAE3417A108A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CD6C0-05C9-4476-A19B-E50FB2B93700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="16" r:id="rId6"/>
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -130,6 +131,12 @@
   </si>
   <si>
     <t>NGC-3103/T2064/T2063</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3310/T3324</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
   </si>
 </sst>
 </file>
@@ -1307,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363DCA35-F5D2-4909-9DFF-F50594A0A84C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1407,4 +1414,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFAD562-30EB-4451-9D95-C68F82773B5A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525CD6C0-05C9-4476-A19B-E50FB2B93700}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F1C509-A3C7-4B65-903F-7A6084AA85A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="17" r:id="rId7"/>
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="20" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -137,6 +138,12 @@
   </si>
   <si>
     <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2494/T2485</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -668,6 +675,112 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C123A14-8D65-4A4E-A09B-B4A2F19F2263}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100301BA-E805-443B-A00F-1C84443A8573}">
   <dimension ref="A1:D12"/>
@@ -994,7 +1107,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFAD562-30EB-4451-9D95-C68F82773B5A}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F1C509-A3C7-4B65-903F-7A6084AA85A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC186D14-4135-453A-B8B4-75382AD63CF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="18" r:id="rId8"/>
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
+    <sheet name="Greece" sheetId="21" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -144,6 +145,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3187/T3189</t>
   </si>
 </sst>
 </file>
@@ -679,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C123A14-8D65-4A4E-A09B-B4A2F19F2263}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,6 +733,112 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF61A47-B43E-4257-A9FB-B8A41A8B7C89}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC186D14-4135-453A-B8B4-75382AD63CF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C904C-21B3-422F-B2C2-BFC1D3B439F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="19" r:id="rId9"/>
     <sheet name="Croatia" sheetId="20" r:id="rId10"/>
     <sheet name="Greece" sheetId="21" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
+    <sheet name="Austria" sheetId="23" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="24" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="42">
   <si>
     <t>Wg</t>
   </si>
@@ -151,6 +154,24 @@
   </si>
   <si>
     <t>NGC-4119/T3187/T3189</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2306</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -792,7 +813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF61A47-B43E-4257-A9FB-B8A41A8B7C89}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -881,6 +902,317 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1848EC-7774-4760-A551-DB0CBF49B028}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BF3DFF-3541-4A17-AA89-67A3600040B0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED517E-D7E7-49D3-BC9A-21036FA5EADE}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549C904C-21B3-422F-B2C2-BFC1D3B439F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7528D-6EBC-4092-BA71-6417C2B3930B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="22" r:id="rId12"/>
     <sheet name="Austria" sheetId="23" r:id="rId13"/>
     <sheet name="Denmark" sheetId="24" r:id="rId14"/>
+    <sheet name="Russia" sheetId="26" r:id="rId15"/>
+    <sheet name="Finland" sheetId="27" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="48">
   <si>
     <t>Wg</t>
   </si>
@@ -172,6 +175,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2910</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2943</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2992</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -919,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1848EC-7774-4760-A551-DB0CBF49B028}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,6 +1247,324 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E8ED97-B5C6-40D7-8C5B-03B0ECA78F89}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840C0EE-84CE-41AC-A11A-C3D16CA5B291}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F8FDF-6CA2-4D40-8123-358B6369A1D6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100301BA-E805-443B-A00F-1C84443A8573}">
   <dimension ref="A1:D12"/>

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B7528D-6EBC-4092-BA71-6417C2B3930B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC8D6FA-2CD3-4BD2-B530-A73975EF7384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="26" r:id="rId15"/>
     <sheet name="Finland" sheetId="27" r:id="rId16"/>
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
+    <sheet name="Norway" sheetId="29" r:id="rId18"/>
+    <sheet name="Poland" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -193,6 +195,24 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3061</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3120</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
+  </si>
+  <si>
+    <t>MX-DPBX</t>
+  </si>
+  <si>
+    <t>MX-BBX</t>
   </si>
 </sst>
 </file>
@@ -726,10 +746,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C123A14-8D65-4A4E-A09B-B4A2F19F2263}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -802,21 +822,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -832,10 +862,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF61A47-B43E-4257-A9FB-B8A41A8B7C89}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,21 +938,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1463,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F8FDF-6CA2-4D40-8123-358B6369A1D6}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1552,6 +1592,238 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE615891-B15C-4AD7-AA1C-E1413D87FA3F}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F721D-D991-4225-9234-ADB1E74F1723}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1888,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E1F334-F85E-4F6E-A70A-71D9A08070ED}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1965,21 +2237,31 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC8D6FA-2CD3-4BD2-B530-A73975EF7384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF50D42-5352-459A-9450-2C34D1708DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -1501,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F8FDF-6CA2-4D40-8123-358B6369A1D6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,11 +1587,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1725,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F721D-D991-4225-9234-ADB1E74F1723}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
@@ -2491,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363DCA35-F5D2-4909-9DFF-F50594A0A84C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2577,11 +2587,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2597,10 +2617,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFAD562-30EB-4451-9D95-C68F82773B5A}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2678,11 +2698,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF50D42-5352-459A-9450-2C34D1708DF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A37A395-FCFD-495F-99E2-FEB8BFAFC18A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -978,10 +978,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B1848EC-7774-4760-A551-DB0CBF49B028}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,16 +1060,26 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1085,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BF3DFF-3541-4A17-AA89-67A3600040B0}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1167,11 +1177,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1187,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBED517E-D7E7-49D3-BC9A-21036FA5EADE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,11 +1289,21 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1735,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F721D-D991-4225-9234-ADB1E74F1723}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
@@ -2287,10 +2317,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6110FB2-0B0D-41AE-8F58-FA9C50D20DE1}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2369,16 +2399,26 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2394,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{121CFDAF-8925-4CF3-AC44-66CE155AB3DF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2481,11 +2521,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2503,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363DCA35-F5D2-4909-9DFF-F50594A0A84C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A37A395-FCFD-495F-99E2-FEB8BFAFC18A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B859DB-0493-49ED-BF38-4478BE055ADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -1319,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E8ED97-B5C6-40D7-8C5B-03B0ECA78F89}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,7 +1332,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1405,11 +1405,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1425,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840C0EE-84CE-41AC-A11A-C3D16CA5B291}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,7 +1448,7 @@
     <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1511,11 +1521,21 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1765,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98F721D-D991-4225-9234-ADB1E74F1723}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
+++ b/Test Data/Gallery_PanelAccessories_ZX_BB_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B859DB-0493-49ED-BF38-4478BE055ADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30992B80-39B5-4333-9DFD-55E2D2864686}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="10" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="28" r:id="rId17"/>
     <sheet name="Norway" sheetId="29" r:id="rId18"/>
     <sheet name="Poland" sheetId="30" r:id="rId19"/>
+    <sheet name="UK" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="56">
   <si>
     <t>Wg</t>
   </si>
@@ -213,6 +214,12 @@
   </si>
   <si>
     <t>MX-BBX</t>
+  </si>
+  <si>
+    <t>UK Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3356/T3357</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840C0EE-84CE-41AC-A11A-C3D16CA5B291}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D14"/>
     </sheetView>
   </sheetViews>
@@ -1786,7 +1793,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2004,6 +2011,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E03CA-FA22-4008-9492-222E983CFFC2}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC277077-B4D6-45F1-8FCC-79252F0521D6}">
   <dimension ref="A1:D12"/>
